--- a/chashmal-before.xlsx
+++ b/chashmal-before.xlsx
@@ -15,10 +15,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-010409]dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="6">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,26 +26,8 @@
     </font>
     <font/>
     <font>
-      <name val="David"/>
+      <name val="Arial"/>
       <b val="1"/>
-      <strike val="0"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="David"/>
-      <strike val="0"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <strike val="0"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
       <strike val="0"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
@@ -62,12 +42,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
-        <bgColor rgb="FFD3D3D3"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -75,66 +55,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD3D3D3"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0"/>
@@ -151,11 +81,11 @@
       <rgbColor rgb="00FF00FF"/>
       <rgbColor rgb="0000FFFF"/>
       <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00D3D3D3"/>
+      <rgbColor rgb="00FFFF00"/>
       <rgbColor rgb="00FF0000"/>
       <rgbColor rgb="0000FF00"/>
       <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FFFFFF"/>
       <rgbColor rgb="00FF00FF"/>
       <rgbColor rgb="0000FFFF"/>
       <rgbColor rgb="00800000"/>
@@ -500,7 +430,7 @@
     <outlinePr/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,303 +438,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="24.29296875" customWidth="1" style="9" min="1" max="1"/>
-    <col width="13.4921875" customWidth="1" style="9" min="2" max="2"/>
-    <col width="24.30078125" customWidth="1" style="9" min="3" max="3"/>
-    <col width="35.09375" customWidth="1" style="9" min="4" max="4"/>
-    <col width="24.29296875" customWidth="1" style="9" min="5" max="5"/>
-    <col width="36.7109375" customWidth="1" style="9" min="6" max="6"/>
-    <col width="18.890625" customWidth="1" style="9" min="7" max="7"/>
-    <col width="35.09375" customWidth="1" style="9" min="8" max="8"/>
-    <col width="13.50390625" customWidth="1" style="9" min="9" max="9"/>
-    <col width="15.65234375" customWidth="1" style="9" min="10" max="10"/>
-    <col width="14.84375" customWidth="1" style="9" min="11" max="11"/>
-    <col width="12.140625" customWidth="1" style="9" min="12" max="12"/>
-    <col width="12.15234375" customWidth="1" style="9" min="13" max="13"/>
-    <col width="24.29296875" customWidth="1" style="9" min="14" max="14"/>
-    <col width="24.29296875" customWidth="1" style="9" min="15" max="15"/>
-    <col width="13.50390625" customWidth="1" style="9" min="16" max="16"/>
-    <col width="13.4921875" customWidth="1" style="9" min="17" max="17"/>
-    <col width="29.69140625" customWidth="1" style="9" min="18" max="18"/>
-    <col width="25.6328125" customWidth="1" style="9" min="19" max="19"/>
-    <col width="0.72265625" customWidth="1" style="9" min="20" max="20"/>
+    <col width="2.78125" customWidth="1" style="2" min="1" max="1"/>
+    <col width="12.11328125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="76.23046875" customWidth="1" style="2" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="0.2" customHeight="1" s="9">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>אזור</t>
-        </is>
-      </c>
+    <row r="1" ht="34.4" customHeight="1" s="2">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>מספר רישיון</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>פעולה</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  שם   בעל הרישיון</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>סיבה</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>סיבה  מילולית</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>יישוב</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>רחוב</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>'מס</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>גוש</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>חלקה</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>מ-תאריך</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>עד-תאריך</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>שם   מאשר הרישיון</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>שם   מין עץ</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>מספר עצים</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">פעולה </t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>הערות</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>תאריך אחרון להגשת ערר</t>
+          <t>! חתך ריק</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="14.15" customHeight="1" s="9">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>מנשה שרון</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>22332</v>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>כריתה והעתקה</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>חברת חשמל</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>בניה</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>תכנית פיתוח והקמת תחנת כח.</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">חדרה                </t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>קו דלק צינור תשן מחלף קיסריה</t>
-        </is>
-      </c>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J2" s="5" t="inlineStr">
-        <is>
-          <t>10652</t>
-        </is>
-      </c>
-      <c r="K2" s="6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L2" s="10" t="n">
-        <v>44229</v>
-      </c>
-      <c r="M2" s="10" t="n">
-        <v>44959</v>
-      </c>
-      <c r="N2" s="2" t="inlineStr">
-        <is>
-          <t>רמי דוידי</t>
-        </is>
-      </c>
-      <c r="O2" s="2" t="inlineStr">
-        <is>
-          <t>זית אירופי</t>
-        </is>
-      </c>
-      <c r="P2" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>העתקה</t>
-        </is>
-      </c>
-      <c r="R2" s="4" t="inlineStr">
-        <is>
-          <t>להעתקה</t>
-        </is>
-      </c>
-      <c r="S2" s="10" t="n">
-        <v>44228</v>
-      </c>
-    </row>
-    <row r="3" ht="14.2" customHeight="1" s="9">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>מנשה שרון</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>22332</v>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>כריתה והעתקה</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>חברת חשמל</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>בניה</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>תכנית פיתוח והקמת תחנת כח.</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">חדרה                </t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>קו דלק צינור תשן מחלף קיסריה</t>
-        </is>
-      </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>10652</t>
-        </is>
-      </c>
-      <c r="K3" s="6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L3" s="10" t="n">
-        <v>44229</v>
-      </c>
-      <c r="M3" s="10" t="n">
-        <v>44959</v>
-      </c>
-      <c r="N3" s="2" t="inlineStr">
-        <is>
-          <t>רמי דוידי</t>
-        </is>
-      </c>
-      <c r="O3" s="2" t="inlineStr">
-        <is>
-          <t>חרוב מצוי</t>
-        </is>
-      </c>
-      <c r="P3" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="2" t="inlineStr">
-        <is>
-          <t>כריתה</t>
-        </is>
-      </c>
-      <c r="R3" s="4" t="inlineStr">
-        <is>
-          <t>לכריתה</t>
-        </is>
-      </c>
-      <c r="S3" s="10" t="n">
-        <v>44228</v>
-      </c>
-    </row>
-    <row r="4" ht="14.15" customHeight="1" s="9"/>
-    <row r="5" ht="13.9" customHeight="1" s="9"/>
-    <row r="6" ht="0.05" customHeight="1" s="9"/>
-    <row r="7" ht="105.2" customHeight="1" s="9"/>
+    <row r="2" ht="17" customHeight="1" s="2"/>
+    <row r="3" ht="55" customHeight="1" s="2"/>
   </sheetData>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.196850393700787" bottom="0.118110236220472" header="0.196850393700787" footer="0.118110236220472"/>
   <pageSetup orientation="landscape" paperSize="9" horizontalDpi="300" verticalDpi="300"/>

--- a/chashmal-before.xlsx
+++ b/chashmal-before.xlsx
@@ -409,13 +409,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6864185C-DA44-41F6-A7E1-EB1314512D77}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787745C4-2CA2-4BC5-B70E-99A0DF640202}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{111D1348-0A61-419C-A03C-2A66C5A6C21A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B18EEE2-C9B3-40C9-8F0A-1797D43B519D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95620F6B-F9EF-4FAE-9479-0C711FBB24EE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EF5137E-9334-45AB-A0CD-90749E51ACCF}"/>
 </file>
--- a/chashmal-before.xlsx
+++ b/chashmal-before.xlsx
@@ -409,13 +409,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787745C4-2CA2-4BC5-B70E-99A0DF640202}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BA81F27-8C49-443A-8BF5-01CA9A2D56C0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B18EEE2-C9B3-40C9-8F0A-1797D43B519D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFC1114E-481C-467D-83C1-4A23740A58AB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EF5137E-9334-45AB-A0CD-90749E51ACCF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{057363D8-41F3-4A8D-AFD1-3F6A4ED2E9C8}"/>
 </file>
--- a/chashmal-before.xlsx
+++ b/chashmal-before.xlsx
@@ -1,35 +1,152 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galits\Desktop\דסק\רשימות לאיתן יועץ השר זום 91020\רישונות כריתה\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6792"/>
   </bookViews>
   <sheets>
-    <sheet name="Rep03-License-List-To-Excel-Las" sheetId="1" r:id="rId6"/>
+    <sheet name="Rep03-License-List-To-Excel-Las" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+  <si>
+    <t>אזור</t>
+  </si>
+  <si>
+    <t>מספר רישיון</t>
+  </si>
+  <si>
+    <t>פעולה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  שם   בעל הרישיון</t>
+  </si>
+  <si>
+    <t>סיבה</t>
+  </si>
+  <si>
+    <t>סיבה  מילולית</t>
+  </si>
+  <si>
+    <t>יישוב</t>
+  </si>
+  <si>
+    <t>רחוב</t>
+  </si>
+  <si>
+    <t>'מס</t>
+  </si>
+  <si>
+    <t>גוש</t>
+  </si>
+  <si>
+    <t>חלקה</t>
+  </si>
+  <si>
+    <t>מ-תאריך</t>
+  </si>
+  <si>
+    <t>עד-תאריך</t>
+  </si>
+  <si>
+    <t>שם   מאשר הרישיון</t>
+  </si>
+  <si>
+    <t>שם   מין עץ</t>
+  </si>
+  <si>
+    <t>מספר עצים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">פעולה </t>
+  </si>
+  <si>
+    <t>הערות</t>
+  </si>
+  <si>
+    <t>תאריך אחרון להגשת ערר</t>
+  </si>
+  <si>
+    <t>ג. עליון ורמת הגולן</t>
+  </si>
+  <si>
+    <t>העתקה</t>
+  </si>
+  <si>
+    <t>אילון חברת חשמל</t>
+  </si>
+  <si>
+    <t>אחר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הנחת  עמוד חשמל </t>
+  </si>
+  <si>
+    <t>סלמה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ואדי סלאמה </t>
+  </si>
+  <si>
+    <t>אלי חפוטה</t>
+  </si>
+  <si>
+    <t>זית אירופי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">העתקה </t>
+  </si>
+  <si>
+    <t/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-10409]dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="David"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="David"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -44,12 +161,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor rgb="FFD3D3D3"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -57,18 +174,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs>
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf applyFont="1" applyFill="1" applyBorder="1" numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="2" fillId="2" borderId="0">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -83,11 +247,11 @@
       <rgbColor rgb="00FF00FF"/>
       <rgbColor rgb="0000FFFF"/>
       <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00D3D3D3"/>
       <rgbColor rgb="00FF0000"/>
       <rgbColor rgb="0000FF00"/>
       <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FFFF00"/>
       <rgbColor rgb="00FF00FF"/>
       <rgbColor rgb="0000FFFF"/>
       <rgbColor rgb="00800000"/>
@@ -140,32 +304,500 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-  <sheetPr>
-    <outlinePr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="2.78125"/>
-    <col min="2" max="2" customWidth="1" width="12.11328125"/>
-    <col min="3" max="3" customWidth="1" width="76.23046875"/>
+    <col min="1" max="1" width="24.296875" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="24.296875" customWidth="1"/>
+    <col min="4" max="4" width="35.09765625" customWidth="1"/>
+    <col min="5" max="5" width="24.296875" customWidth="1"/>
+    <col min="6" max="6" width="36.69921875" customWidth="1"/>
+    <col min="7" max="7" width="18.8984375" customWidth="1"/>
+    <col min="8" max="8" width="35.09765625" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="15.59765625" customWidth="1"/>
+    <col min="11" max="11" width="14.796875" customWidth="1"/>
+    <col min="12" max="13" width="12.09765625" customWidth="1"/>
+    <col min="14" max="15" width="24.296875" customWidth="1"/>
+    <col min="16" max="17" width="13.5" customWidth="1"/>
+    <col min="18" max="18" width="29.69921875" customWidth="1"/>
+    <col min="19" max="19" width="25.59765625" customWidth="1"/>
+    <col min="20" max="20" width="0.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34.4" customHeight="1"/>
-    <row r="2" ht="17" customHeight="1">
-      <c s="1" t="inlineStr" r="B2">
-        <is>
-          <t xml:space="preserve">! חתך ריק</t>
-        </is>
+    <row r="1" spans="1:19" ht="0.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" ht="55" customHeight="1"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4364</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7">
+        <v>44242</v>
+      </c>
+      <c r="M3" s="7">
+        <v>44255</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="7">
+        <v>44241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="105.15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.196850393700787" bottom="0.118110236220472" header="0.196850393700787" footer="0.118110236220472"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -409,13 +1041,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BA81F27-8C49-443A-8BF5-01CA9A2D56C0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{816E739F-9195-44AC-8E4E-85D660BBC4BA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFC1114E-481C-467D-83C1-4A23740A58AB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3A099AE-F6B7-4BB5-8C0A-521189B06848}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{057363D8-41F3-4A8D-AFD1-3F6A4ED2E9C8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9415220C-1589-444A-BF92-BC12FF2A9EBF}"/>
 </file>
--- a/chashmal-before.xlsx
+++ b/chashmal-before.xlsx
@@ -409,13 +409,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F95399E-22F8-4940-811D-EF7DA718AC47}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D3BF6FE-BA85-469A-B590-CCBE430D2FEA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64D4BA34-95FC-4140-8C1A-C1528AFBA7EB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{611D36F4-69AD-43BF-B087-9FA1ED4FC616}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A585A669-8DB4-4A62-8274-987E47A420A5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C903F43F-E662-4EF3-BA10-97B8152B579E}"/>
 </file>
--- a/chashmal-before.xlsx
+++ b/chashmal-before.xlsx
@@ -1,35 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galits\Desktop\דסק\רשימות לאיתן יועץ השר זום 91020\רישונות כריתה\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6800"/>
   </bookViews>
   <sheets>
-    <sheet name="Rep03-License-List-To-Excel-Las" sheetId="1" r:id="rId6"/>
+    <sheet name="Rep03-License-List-To-Excel-Las" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>! חתך ריק</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -58,17 +70,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs>
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf applyFont="1" applyFill="1" applyBorder="1" numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="2" fillId="2" borderId="0">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -140,32 +152,322 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-  <sheetPr>
-    <outlinePr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="2.78125"/>
-    <col min="2" max="2" customWidth="1" width="12.11328125"/>
-    <col min="3" max="3" customWidth="1" width="76.23046875"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="12.08203125" customWidth="1"/>
+    <col min="3" max="3" width="76.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34.4" customHeight="1"/>
-    <row r="2" ht="17" customHeight="1">
-      <c s="1" t="inlineStr" r="B2">
-        <is>
-          <t xml:space="preserve">! חתך ריק</t>
-        </is>
+    <row r="1" spans="2:2" ht="34.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" ht="55" customHeight="1"/>
+    <row r="3" spans="2:2" ht="55" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.196850393700787" bottom="0.118110236220472" header="0.196850393700787" footer="0.118110236220472"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -409,13 +711,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D3BF6FE-BA85-469A-B590-CCBE430D2FEA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E71B3A3-7D2D-4494-BDAE-EA71984C1871}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{611D36F4-69AD-43BF-B087-9FA1ED4FC616}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89D2FFA8-BB05-4258-AB16-3827316EF310}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C903F43F-E662-4EF3-BA10-97B8152B579E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3E08893-98BC-4C54-901C-CB9D7B8473B1}"/>
 </file>
--- a/chashmal-before.xlsx
+++ b/chashmal-before.xlsx
@@ -1,47 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galits\Desktop\דסק\רשימות לאיתן יועץ השר זום 91020\רישונות כריתה\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6800"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
   <sheets>
-    <sheet name="Rep03-License-List-To-Excel-Las" sheetId="1" r:id="rId1"/>
+    <sheet name="Rep03-License-List-To-Excel-Las" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>! חתך ריק</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-    </font>
+    <font/>
     <font>
       <b/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -70,17 +58,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf applyFont="1" applyFill="1" applyBorder="1" numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="2" fillId="2" borderId="0">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -152,322 +140,32 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+  <sheetPr>
+    <outlinePr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="2" width="12.08203125" customWidth="1"/>
-    <col min="3" max="3" width="76.25" customWidth="1"/>
+    <col min="1" max="1" customWidth="1" width="2.78125"/>
+    <col min="2" max="2" customWidth="1" width="12.11328125"/>
+    <col min="3" max="3" customWidth="1" width="76.23046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="34.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
+    <row r="1" ht="34.4" customHeight="1"/>
+    <row r="2" ht="17" customHeight="1">
+      <c s="1" t="inlineStr" r="B2">
+        <is>
+          <t xml:space="preserve">! חתך ריק</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" ht="55" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.196850393700787" bottom="0.118110236220472" header="0.196850393700787" footer="0.118110236220472"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -711,13 +409,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E71B3A3-7D2D-4494-BDAE-EA71984C1871}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C878113-67ED-4776-8D87-AF67796FB936}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89D2FFA8-BB05-4258-AB16-3827316EF310}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C7D20D1-0971-4AA5-B604-543259D36E72}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3E08893-98BC-4C54-901C-CB9D7B8473B1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A0B3338-3A22-4612-82F4-4453342B1895}"/>
 </file>
--- a/chashmal-before.xlsx
+++ b/chashmal-before.xlsx
@@ -409,13 +409,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C878113-67ED-4776-8D87-AF67796FB936}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE85CD18-13DB-4274-A06D-44351FF9CDE0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C7D20D1-0971-4AA5-B604-543259D36E72}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCE006A-32B7-463D-A916-BA7AC4708F75}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A0B3338-3A22-4612-82F4-4453342B1895}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40F55124-E27C-4407-8D31-9D55E2732B84}"/>
 </file>
--- a/chashmal-before.xlsx
+++ b/chashmal-before.xlsx
@@ -409,13 +409,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE85CD18-13DB-4274-A06D-44351FF9CDE0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{052A7829-5F16-4695-9911-9E9443099BD3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCE006A-32B7-463D-A916-BA7AC4708F75}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76518BFA-52B8-42DB-9E2C-5F91FBB8F02D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40F55124-E27C-4407-8D31-9D55E2732B84}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5DC5422-0B18-4325-9CC2-CA3CBDD12D4E}"/>
 </file>